--- a/ParseFromExcel/ParseFromExcel/bin/Debug/Info.xlsx
+++ b/ParseFromExcel/ParseFromExcel/bin/Debug/Info.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="210" windowWidth="24915" windowHeight="12015"/>
+    <workbookView xWindow="120" yWindow="210" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -21,12 +21,6 @@
     <t>KEY</t>
   </si>
   <si>
-    <t>EN_VALUE</t>
-  </si>
-  <si>
-    <t>RU_VALUE</t>
-  </si>
-  <si>
     <t>Pharmaceutical</t>
   </si>
   <si>
@@ -139,13 +133,19 @@
   </si>
   <si>
     <t>Считыватель штрих-кодов, этикеток, печати, LabX</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>RU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,7 +200,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -213,9 +213,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -253,7 +253,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -287,7 +287,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -322,10 +321,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -498,172 +496,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.5703125" customWidth="1"/>
     <col min="2" max="2" width="55.85546875" customWidth="1"/>
     <col min="3" max="3" width="73.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -673,24 +671,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
